--- a/biology/Biochimie/Réaction_de_Tollens/Réaction_de_Tollens.xlsx
+++ b/biology/Biochimie/Réaction_de_Tollens/Réaction_de_Tollens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9action_de_Tollens</t>
+          <t>Réaction_de_Tollens</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La réaction de Tollens est une réaction caractéristique des aldéhydes.
 Ceci du fait des propriétés d'oxydabilité des aldéhydes, que n'ont pas les cétones. Elle est découverte par le chimiste Bernhard Tollens.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9action_de_Tollens</t>
+          <t>Réaction_de_Tollens</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Réactif de Tollens</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour l'essentiel la solution de Tollens est un complexe de nitrate d'argent en solution ammoniacale ([Ag(NH3)2]+ ; NO3−). Au cours de la réaction l'ion argent I oxyde l'aldéhyde pour donner un ion carboxylate selon la réaction bilan d'oxydo-réduction générale :
 R-CHO + 2Ag+(aq)  + 3HO− → RCOO− + 2Ag(s) + 2H2O
